--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -535,6 +535,66 @@
         <v>308</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>630</v>
+      </c>
+      <c r="B19">
+        <f>A19/A18</f>
+        <v>0.33105622700998422</v>
+      </c>
+      <c r="D19">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>512</v>
+      </c>
+      <c r="E20">
+        <f>D20/D19</f>
+        <v>0.41626016260162602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1230</v>
+      </c>
+      <c r="B22">
+        <f>A22/A21</f>
+        <v>1.2058823529411764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f>760*4</f>
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>3040</v>
+      </c>
+      <c r="C28">
+        <f>B28/B27</f>
+        <v>3.8974358974358974</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\국기과정_강민경\pofol_2\portfolio_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF140DAE-1F6C-47A2-841B-1EB7E083A1CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="10515"/>
+    <workbookView xWindow="2070" yWindow="8325" windowWidth="21060" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,16 +348,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>415.75</v>
       </c>
@@ -373,8 +374,18 @@
       <c r="J1">
         <v>297.45</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N1">
+        <v>1903</v>
+      </c>
+      <c r="Q1">
+        <v>780</v>
+      </c>
+      <c r="R1">
+        <f>Q1/100</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>A1*5</f>
         <v>2078.75</v>
@@ -400,8 +411,22 @@
         <f>J2/J1</f>
         <v>3.3619095646327118E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <f>N2/N1</f>
+        <v>1.0509721492380452E-2</v>
+      </c>
+      <c r="Q2">
+        <v>72</v>
+      </c>
+      <c r="R2">
+        <f>Q2/R1</f>
+        <v>9.2307692307692317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>120</v>
       </c>
@@ -427,8 +452,22 @@
         <f>J3/J1</f>
         <v>0.1445621112792066</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>40</v>
+      </c>
+      <c r="O3">
+        <f>N3/N1</f>
+        <v>2.1019442984760904E-2</v>
+      </c>
+      <c r="Q3">
+        <v>50</v>
+      </c>
+      <c r="R3">
+        <f>Q3/R1</f>
+        <v>6.4102564102564106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>37</v>
       </c>
@@ -451,7 +490,7 @@
         <v>0.18826693561943184</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>40</v>
       </c>
@@ -460,7 +499,7 @@
         <v>2.1019442984760901</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>49</v>
       </c>
@@ -468,8 +507,20 @@
         <f>C6/D1</f>
         <v>2.5748817656332106</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>80</v>
+      </c>
+      <c r="O7">
+        <f>N7/N6</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>56</v>
       </c>
@@ -478,7 +529,7 @@
         <v>2.9427220178665263</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>1360</v>
       </c>
@@ -498,7 +549,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>290</v>
       </c>
@@ -515,7 +566,7 @@
         <v>301.33333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G13">
         <f>1020-924</f>
         <v>96</v>
@@ -525,7 +576,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>1160/4</f>
         <v>290</v>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\국기과정_강민경\pofol_2\portfolio_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF140DAE-1F6C-47A2-841B-1EB7E083A1CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="8325" windowWidth="21060" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="8325" windowWidth="21060" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,11 +347,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -586,12 +585,38 @@
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>389.52</v>
+      </c>
+      <c r="J17">
+        <v>1360</v>
+      </c>
+      <c r="K17">
+        <f>J17/100</f>
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1903</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>41</v>
+      </c>
+      <c r="H18">
+        <f>G18/G17</f>
+        <v>0.10525775313205997</v>
+      </c>
+      <c r="J18">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <f>J18/K17</f>
+        <v>2.6470588235294117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>630</v>
       </c>
@@ -602,8 +627,22 @@
       <c r="D19">
         <v>1230</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <f>G19/G17</f>
+        <v>0.10269049086054632</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <f>J19/K17</f>
+        <v>1.1029411764705883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>512</v>
       </c>
@@ -612,12 +651,12 @@
         <v>0.41626016260162602</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1020</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1230</v>
       </c>
@@ -626,18 +665,18 @@
         <v>1.2058823529411764</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25">
         <f>760*4</f>
         <v>3040</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>780</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>3040</v>
       </c>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -350,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -665,16 +665,49 @@
         <v>1.2058823529411764</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>415.75</v>
+      </c>
+      <c r="G23">
+        <f>F23*G24</f>
+        <v>409.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>409.11</v>
+      </c>
+      <c r="G24">
+        <f>F24/F23</f>
+        <v>0.98402886349969942</v>
+      </c>
+    </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25">
         <f>760*4</f>
         <v>3040</v>
       </c>
+      <c r="F25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>313.45</v>
+      </c>
+      <c r="G26">
+        <f>F26/F25</f>
+        <v>1.0808620689655173</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>780</v>
       </c>
+      <c r="F27">
+        <v>301.33</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28">
@@ -683,6 +716,13 @@
       <c r="C28">
         <f>B28/B27</f>
         <v>3.8974358974358974</v>
+      </c>
+      <c r="F28">
+        <v>279.05</v>
+      </c>
+      <c r="G28">
+        <f>F28/F27</f>
+        <v>0.92606112899478987</v>
       </c>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -725,6 +725,29 @@
         <v>0.92606112899478987</v>
       </c>
     </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>140</v>
+      </c>
+      <c r="C31">
+        <f>B31/B30</f>
+        <v>7.3568050446663161E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <f>B32/B30</f>
+        <v>3.415659485023647E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\국기과정_강민경\pofol_2\portfolio_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3945322-C5BE-47F9-A5A0-9A00F7CED7C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="8325" windowWidth="21060" windowHeight="11010"/>
+    <workbookView xWindow="1275" yWindow="8655" windowWidth="21060" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,11 +348,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -585,7 +586,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>389.52</v>
       </c>
@@ -596,8 +597,11 @@
         <f>J17/100</f>
         <v>13.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1903</v>
       </c>
@@ -615,8 +619,15 @@
         <f>J18/K17</f>
         <v>2.6470588235294117</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>60</v>
+      </c>
+      <c r="O18">
+        <f>N18/N17</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>630</v>
       </c>
@@ -641,8 +652,15 @@
         <f>J19/K17</f>
         <v>1.1029411764705883</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>100</v>
+      </c>
+      <c r="O19">
+        <f>N19/N17</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>512</v>
       </c>
@@ -651,12 +669,19 @@
         <v>0.41626016260162602</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1020</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>1903</v>
+      </c>
+      <c r="O21">
+        <f>N21/100</f>
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1230</v>
       </c>
@@ -664,8 +689,15 @@
         <f>A22/A21</f>
         <v>1.2058823529411764</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>969</v>
+      </c>
+      <c r="O22">
+        <f>N22/O21</f>
+        <v>50.91960063058329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F23">
         <v>415.75</v>
       </c>
@@ -674,7 +706,7 @@
         <v>409.11</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F24">
         <v>409.11</v>
       </c>
@@ -683,7 +715,7 @@
         <v>0.98402886349969942</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25">
         <f>760*4</f>
         <v>3040</v>
@@ -692,7 +724,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F26">
         <v>313.45</v>
       </c>
@@ -701,7 +733,7 @@
         <v>1.0808620689655173</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>780</v>
       </c>
@@ -709,7 +741,7 @@
         <v>301.33</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>3040</v>
       </c>
@@ -725,12 +757,12 @@
         <v>0.92606112899478987</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1903</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>140</v>
       </c>
@@ -739,7 +771,7 @@
         <v>7.3568050446663161E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>65</v>
       </c>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\국기과정_강민경\pofol_2\portfolio_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3945322-C5BE-47F9-A5A0-9A00F7CED7C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="8655" windowWidth="21060" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="8655" windowWidth="21060" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,11 +347,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -705,6 +704,9 @@
         <f>F23*G24</f>
         <v>409.11</v>
       </c>
+      <c r="J23">
+        <v>1903</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F24">
@@ -713,6 +715,13 @@
       <c r="G24">
         <f>F24/F23</f>
         <v>0.98402886349969942</v>
+      </c>
+      <c r="J24">
+        <v>927</v>
+      </c>
+      <c r="K24">
+        <f>J24/J23</f>
+        <v>0.48712559117183396</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -732,6 +741,9 @@
         <f>F26/F25</f>
         <v>1.0808620689655173</v>
       </c>
+      <c r="J26">
+        <v>969</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27">
@@ -739,6 +751,13 @@
       </c>
       <c r="F27">
         <v>301.33</v>
+      </c>
+      <c r="J27">
+        <v>927</v>
+      </c>
+      <c r="K27">
+        <f>J27/J26</f>
+        <v>0.95665634674922606</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
